--- a/progetto2/progetto2.xlsx
+++ b/progetto2/progetto2.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202ABEE0-7D4A-402D-A2A5-E0EB43EADD69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FF3397-B27B-4C18-BFB6-B827744394C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="7530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="d">Sheet1!$E$17:$G$17</definedName>
+    <definedName name="due_time">Sheet1!$E$3:$O$3</definedName>
+    <definedName name="due_time1">Sheet1!$E$3:$O$3</definedName>
+    <definedName name="due_time2">Sheet1!$E$8:$O$8</definedName>
+    <definedName name="p">Sheet1!$E$16:$G$16</definedName>
+    <definedName name="processing_time">Sheet1!$E$2:$O$2</definedName>
+    <definedName name="processing_time1">Sheet1!$E$2:$O$2</definedName>
+    <definedName name="processing_time2">Sheet1!$E$7:$O$7</definedName>
+    <definedName name="size">Sheet1!$B$1</definedName>
+    <definedName name="w">Sheet1!$E$18:$G$18</definedName>
+    <definedName name="weight">Sheet1!$E$4:$O$4</definedName>
+    <definedName name="weight1">Sheet1!$E$4:$O$4</definedName>
+    <definedName name="weight2">Sheet1!$E$9:$O$9</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
   <si>
     <t>size</t>
   </si>
@@ -109,16 +125,13 @@
     </r>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>constraints</t>
   </si>
   <si>
     <t xml:space="preserve"># constraints </t>
+  </si>
+  <si>
+    <t>Job ordinati</t>
   </si>
 </sst>
 </file>
@@ -530,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q14" sqref="A1:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,7 +602,7 @@
     </row>
     <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -671,7 +684,7 @@
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
@@ -685,8 +698,8 @@
       <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
+      <c r="H4" s="4">
+        <v>1.5</v>
       </c>
       <c r="I4" s="4">
         <v>2</v>
@@ -700,8 +713,8 @@
       <c r="L4" s="4">
         <v>1</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>17</v>
+      <c r="M4" s="4">
+        <v>1.2</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
@@ -710,28 +723,548 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
         <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>8</v>
+      </c>
+      <c r="M7" s="4">
+        <v>12</v>
+      </c>
+      <c r="N7" s="4">
+        <v>12</v>
+      </c>
+      <c r="O7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4">
+        <v>18</v>
+      </c>
+      <c r="J8" s="4">
+        <v>20</v>
+      </c>
+      <c r="K8" s="4">
+        <v>21</v>
+      </c>
+      <c r="L8" s="4">
+        <v>30</v>
+      </c>
+      <c r="M8" s="4">
+        <v>31</v>
+      </c>
+      <c r="N8" s="4">
+        <v>32</v>
+      </c>
+      <c r="O8" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="H19" s="5"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="E6:O9">
+    <sortCondition ref="E8:O8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B40077-B15E-46A4-B082-10CA939BB11C}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4">
+        <v>5</v>
+      </c>
+      <c r="M2" s="4">
+        <v>3</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4">
+        <v>31</v>
+      </c>
+      <c r="K3" s="4">
+        <v>32</v>
+      </c>
+      <c r="L3" s="4">
+        <v>35</v>
+      </c>
+      <c r="M3" s="4">
+        <v>18</v>
+      </c>
+      <c r="N3" s="4">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>8</v>
+      </c>
+      <c r="M7" s="4">
+        <v>12</v>
+      </c>
+      <c r="N7" s="4">
+        <v>12</v>
+      </c>
+      <c r="O7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4">
+        <v>18</v>
+      </c>
+      <c r="J8" s="4">
+        <v>20</v>
+      </c>
+      <c r="K8" s="4">
+        <v>21</v>
+      </c>
+      <c r="L8" s="4">
+        <v>30</v>
+      </c>
+      <c r="M8" s="4">
+        <v>31</v>
+      </c>
+      <c r="N8" s="4">
+        <v>32</v>
+      </c>
+      <c r="O8" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">

--- a/progetto2/progetto2.xlsx
+++ b/progetto2/progetto2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FF3397-B27B-4C18-BFB6-B827744394C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A10926-5275-4C8C-B889-1C047BFB14FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="7530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,29 @@
     <definedName name="processing_time1">Sheet1!$E$2:$O$2</definedName>
     <definedName name="processing_time2">Sheet1!$E$7:$O$7</definedName>
     <definedName name="size">Sheet1!$B$1</definedName>
+    <definedName name="soluzione">Sheet1!$E$13:$O$23</definedName>
     <definedName name="w">Sheet1!$E$18:$G$18</definedName>
     <definedName name="weight">Sheet1!$E$4:$O$4</definedName>
     <definedName name="weight1">Sheet1!$E$4:$O$4</definedName>
     <definedName name="weight2">Sheet1!$E$9:$O$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
   <si>
     <t>size</t>
   </si>
@@ -133,12 +140,96 @@
   <si>
     <t>Job ordinati</t>
   </si>
+  <si>
+    <t>Lingo ordered</t>
+  </si>
+  <si>
+    <t>posizione 1</t>
+  </si>
+  <si>
+    <t>posizione 2</t>
+  </si>
+  <si>
+    <t>posizione 3</t>
+  </si>
+  <si>
+    <t>posizione 4</t>
+  </si>
+  <si>
+    <t>posizione 5</t>
+  </si>
+  <si>
+    <t>posizione 6</t>
+  </si>
+  <si>
+    <t>posizione 7</t>
+  </si>
+  <si>
+    <t>posizione 8</t>
+  </si>
+  <si>
+    <t>posizione 9</t>
+  </si>
+  <si>
+    <t>posizione 10</t>
+  </si>
+  <si>
+    <t>posizione 11</t>
+  </si>
+  <si>
+    <t>job 1</t>
+  </si>
+  <si>
+    <t>job 3</t>
+  </si>
+  <si>
+    <t>job 4</t>
+  </si>
+  <si>
+    <t>job 5</t>
+  </si>
+  <si>
+    <t>job 6</t>
+  </si>
+  <si>
+    <t>job 7</t>
+  </si>
+  <si>
+    <t>job 8</t>
+  </si>
+  <si>
+    <t>job 9</t>
+  </si>
+  <si>
+    <t>job 10</t>
+  </si>
+  <si>
+    <t>job 11</t>
+  </si>
+  <si>
+    <t>job 2</t>
+  </si>
+  <si>
+    <t>lingo -&gt;</t>
+  </si>
+  <si>
+    <t>matlab-&gt;</t>
+  </si>
+  <si>
+    <t>ritardo totale</t>
+  </si>
+  <si>
+    <t>ritardo totale pesato</t>
+  </si>
+  <si>
+    <t>supporto calcolo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +262,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -248,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -263,6 +360,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -543,17 +643,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="A1:Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="99" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.36328125" customWidth="1"/>
     <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" customWidth="1"/>
+    <col min="13" max="13" width="11.7265625" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -902,16 +1011,1128 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H11" s="5"/>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D17" s="5"/>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="H19" s="5"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E30:E40)</f>
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:O25" si="0">SUM(F30:F40)</f>
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D26" s="6"/>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26">
+        <v>236</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>8</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>98</v>
+      </c>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30">
+        <f>PRODUCT(E13,C13)</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>PRODUCT(F13,C13)</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>PRODUCT(G13,C13)</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>PRODUCT(H13,C13)</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>PRODUCT(I13,C13)</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>PRODUCT(J13,C13)</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f>PRODUCT(K13,C13)</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f>PRODUCT(L13,C13)</f>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f>PRODUCT(M13,C13)</f>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f>PRODUCT(N13,C13)</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f>PRODUCT(O13,C13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <f t="shared" ref="E31:E40" si="1">PRODUCT(E14,C14)</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>PRODUCT(F14,C14)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>PRODUCT(G14,C14)</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H40" si="2">PRODUCT(H14,C14)</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31:I40" si="3">PRODUCT(I14,C14)</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31:J40" si="4">PRODUCT(J14,C14)</f>
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:K40" si="5">PRODUCT(K14,C14)</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31:L40" si="6">PRODUCT(L14,C14)</f>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31:M40" si="7">PRODUCT(M14,C14)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:N40" si="8">PRODUCT(N14,C14)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:O40" si="9">PRODUCT(O14,C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F40" si="10">PRODUCT(F15,C15)</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:G40" si="11">PRODUCT(G15,C15)</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="E6:O9">
     <sortCondition ref="E8:O8"/>
   </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -921,7 +2142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B40077-B15E-46A4-B082-10CA939BB11C}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+    <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
